--- a/data/582/GSO/CPI from investtaiwan.xlsx
+++ b/data/582/GSO/CPI from investtaiwan.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\582\GSO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F40861-4551-49A8-AE1A-D8ECAD4ECE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1890" yWindow="4395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GSO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>2021-06</t>
   </si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
   </si>
   <si>
     <t>CPI</t>
@@ -49,21 +49,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,10 +115,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,14 +414,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,46 +445,35 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B2">
-        <v>104.56</v>
+        <v>104.86</v>
       </c>
       <c r="C2">
-        <v>104.52</v>
+        <v>105.53</v>
       </c>
       <c r="D2">
-        <v>104.68</v>
+        <v>105.79</v>
       </c>
       <c r="E2">
-        <v>104.86</v>
+        <v>105.14</v>
       </c>
       <c r="F2">
-        <v>105.53</v>
+        <v>104.93</v>
       </c>
       <c r="G2">
-        <v>105.79</v>
+        <v>105.27</v>
       </c>
       <c r="H2">
-        <v>105.14</v>
-      </c>
-      <c r="I2">
-        <v>104.93</v>
-      </c>
-      <c r="J2">
-        <v>105.27</v>
+        <v>105.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>